--- a/CMPS 340 project/Doc/TaskProgresReport.xlsx
+++ b/CMPS 340 project/Doc/TaskProgresReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewh\Desktop\CMPS 340 project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D61CF3-CEE0-4064-B662-0EA99FB973F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A59BB98-B561-4A1D-A74F-0C201B8DD6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Task Name</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Drew Hutchinson</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Making csv_operations module.</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -366,17 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -401,7 +410,24 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45607</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/CMPS 340 project/Doc/TaskProgresReport.xlsx
+++ b/CMPS 340 project/Doc/TaskProgresReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewh\Desktop\CMPS 340 project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A59BB98-B561-4A1D-A74F-0C201B8DD6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAAE9CC-BEAB-403A-9612-CA2D555544EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Task Name</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>Rex Liner</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +437,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CMPS 340 project/Doc/TaskProgresReport.xlsx
+++ b/CMPS 340 project/Doc/TaskProgresReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewh\Desktop\CMPS 340 project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAAE9CC-BEAB-403A-9612-CA2D555544EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B9BBC-773F-4464-8FDA-612A726D9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Task Name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Rex Liner</t>
+  </si>
+  <si>
+    <t>PA2</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +454,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CMPS 340 project/Doc/TaskProgresReport.xlsx
+++ b/CMPS 340 project/Doc/TaskProgresReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewh\Desktop\CMPS 340 project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B9BBC-773F-4464-8FDA-612A726D9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2D7B3A-83D9-4DA7-944F-6406059B29B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Task Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Making csv_operations module.</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>PA1</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>Fixing code and prep for final submission.</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -445,13 +448,13 @@
         <v>45609</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,12 +462,40 @@
         <v>45616</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45630</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
